--- a/03-23-25 to 3-29-25 Milwaukee Schedule.xlsx
+++ b/03-23-25 to 3-29-25 Milwaukee Schedule.xlsx
@@ -540,16 +540,40 @@
           <t> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bag 5</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bag 5</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
@@ -571,16 +595,40 @@
           <t> </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bag 6</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bags 1-3 </t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
@@ -602,12 +650,28 @@
           <t> </t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Bag 8, SB 11</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>

--- a/03-23-25 to 3-29-25 Milwaukee Schedule.xlsx
+++ b/03-23-25 to 3-29-25 Milwaukee Schedule.xlsx
@@ -3034,7 +3034,7 @@
       <c r="G52" t="inlineStr">
         <is>
           <t>1st Financial,
-Train w/ Aivy</t>
+Train w/ Jerry</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -3134,7 +3134,11 @@
           <t>Jerry D</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Train Brenda</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
@@ -3335,7 +3339,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -3382,15 +3386,10 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>2nd Financial,
-Train w/ Lashaun</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
@@ -3442,13 +3441,13 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>@ Store,
-Train Brenda</t>
+          <t>2nd Financial,
+Train w/ Lashaun</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -3500,21 +3499,9 @@
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
@@ -3607,7 +3594,11 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">COURTESY MEET </t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
@@ -3648,7 +3639,7 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t xml:space="preserve">COURTESY MEET </t>
+          <t>5:30 AM MEET BAYSHORE</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -3691,7 +3682,7 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>5:30 AM MEET BAYSHORE</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -3738,7 +3729,7 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -3773,7 +3764,7 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>DHILLON'S STATION 60 LLC, GRAFTON</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -3808,7 +3799,7 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION 60 LLC, GRAFTON</t>
+          <t>1185 N PORT WASHINGTON RD</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -3843,7 +3834,7 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1185 N PORT WASHINGTON RD</t>
+          <t>https://maps.app.goo.gl/j6V8me3CPcLfC84u6</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -3876,11 +3867,7 @@
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/j6V8me3CPcLfC84u6</t>
-        </is>
-      </c>
+      <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
@@ -3910,9 +3897,22 @@
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3939,20 +3939,15 @@
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
@@ -3991,15 +3986,19 @@
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
@@ -4036,21 +4035,9 @@
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>

--- a/03-23-25 to 3-29-25 Milwaukee Schedule.xlsx
+++ b/03-23-25 to 3-29-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y74"/>
+  <dimension ref="A1:Y73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2100,10 +2100,14 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Train Brenda</t>
+        </is>
+      </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
@@ -2159,14 +2163,10 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>Train Brenda</t>
-        </is>
-      </c>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2266,10 +2266,15 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
@@ -2302,7 +2307,7 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2314,7 +2319,7 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2333,15 +2338,10 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2378,7 +2378,7 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2449,7 +2449,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2468,10 +2468,14 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr"/>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -2484,10 +2488,14 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
@@ -2496,7 +2504,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2508,7 +2516,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2520,21 +2528,9 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Mai</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2547,14 +2543,10 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
@@ -2563,7 +2555,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2575,7 +2567,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2606,7 +2598,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2618,10 +2610,15 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr"/>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>4th Scan,
+Train w/ Carlie</t>
+        </is>
+      </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
@@ -2630,10 +2627,15 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr"/>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>5th Scan,
+Train w/ Carlie</t>
+        </is>
+      </c>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
     </row>
@@ -2643,7 +2645,11 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
@@ -2661,44 +2667,22 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Rx (2nd Rx)</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>4th Scan,
-Train w/ Carlie</t>
-        </is>
-      </c>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>5th Scan,
-Train w/ Carlie</t>
-        </is>
-      </c>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
     </row>
@@ -2710,7 +2694,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -2730,14 +2714,10 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>Rx (2nd Rx)</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
@@ -2757,7 +2737,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FESTIVAL #2738, HALES CORNERS - LIFO</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -2777,13 +2757,17 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
@@ -2800,7 +2784,7 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>FESTIVAL #2738, HALES CORNERS - LIFO</t>
+          <t>5600 S 108TH ST</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -2820,7 +2804,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -2828,7 +2812,7 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -2847,7 +2831,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>5600 S 108TH ST</t>
+          <t>https://goo.gl/maps/nBMrYYd4MgfvQze18</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -2867,17 +2851,13 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
@@ -2892,27 +2872,15 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/nBMrYYd4MgfvQze18</t>
-        </is>
-      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
@@ -2930,9 +2898,21 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
@@ -2971,17 +2951,18 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Brenda</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>1st Financial,
+Train w/ Jerry</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -3003,7 +2984,11 @@
       </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>4:00 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
@@ -3023,20 +3008,15 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Brenda</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>1st Financial,
-Train w/ Jerry</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
@@ -3057,7 +3037,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>4:00 AM OFFICE LEAVE TIME</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3079,15 +3059,19 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Train Brenda</t>
+        </is>
+      </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
@@ -3104,7 +3088,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3126,19 +3110,15 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Train Brenda</t>
-        </is>
-      </c>
+          <t>Justin Learned</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
@@ -3147,19 +3127,19 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Until 10:00</t>
+          <t>Supv Rx</t>
         </is>
       </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>SULLIVAN'S FOODS #225, FREEPORT</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3181,15 +3161,19 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Train Sophia</t>
+        </is>
+      </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
@@ -3198,19 +3182,15 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>SULLIVAN'S FOODS #225, FREEPORT</t>
+          <t>2002 W GALENA AVE</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3232,19 +3212,15 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Train Sophia</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
@@ -3253,15 +3229,19 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Rx (1st Rx)</t>
+        </is>
+      </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2002 W GALENA AVE</t>
+          <t>https://goo.gl/maps/YcFP9FTjTEs94iQh7</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3283,12 +3263,12 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -3300,21 +3280,17 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Rx (1st Rx)</t>
+          <t>Train Brenda</t>
         </is>
       </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/YcFP9FTjTEs94iQh7</t>
-        </is>
-      </c>
+      <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
@@ -3334,12 +3310,12 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -3351,18 +3327,26 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>Train Brenda</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
@@ -3381,15 +3365,20 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr"/>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2nd Financial,
+Train w/ Lashaun</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
@@ -3398,24 +3387,29 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr"/>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>3rd Scan,
+Train w/ Carlie</t>
+        </is>
+      </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>White Camry</t>
         </is>
       </c>
       <c r="P59" t="inlineStr"/>
@@ -3434,22 +3428,9 @@
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>2nd Financial,
-Train w/ Lashaun</t>
-        </is>
-      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
@@ -3458,29 +3439,24 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>3rd Scan,
-Train w/ Carlie</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>White Camry</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P60" t="inlineStr"/>
@@ -3510,19 +3486,19 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -3547,29 +3523,25 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">COURTESY MEET </t>
+        </is>
+      </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -3596,7 +3568,7 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t xml:space="preserve">COURTESY MEET </t>
+          <t>5:30 AM MEET BAYSHORE</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -3607,12 +3579,12 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -3639,23 +3611,27 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>5:30 AM MEET BAYSHORE</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>5:15 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -3682,7 +3658,7 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -3690,26 +3666,14 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>5:15 AM OFFICE LEAVE TIME</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
@@ -3729,7 +3693,7 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>DHILLON'S STATION 60 LLC, GRAFTON</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -3737,7 +3701,7 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
@@ -3764,7 +3728,7 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION 60 LLC, GRAFTON</t>
+          <t>1185 N PORT WASHINGTON RD</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -3772,7 +3736,7 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>DHILLON'S STATION IXONIA</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
@@ -3799,7 +3763,7 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1185 N PORT WASHINGTON RD</t>
+          <t>https://maps.app.goo.gl/j6V8me3CPcLfC84u6</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -3807,7 +3771,7 @@
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION IXONIA</t>
+          <t>W1168 AMERICAN ST HWY 16</t>
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
@@ -3832,17 +3796,13 @@
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/j6V8me3CPcLfC84u6</t>
-        </is>
-      </c>
+      <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>W1168 AMERICAN ST HWY 16</t>
+          <t>https://goo.gl/maps/YXYWpM5kCeT2</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -3866,16 +3826,25 @@
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/YXYWpM5kCeT2</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
@@ -3899,24 +3868,31 @@
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
           <t>1)</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe, Equip</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
@@ -3939,29 +3915,33 @@
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Sante Fe</t>
         </is>
       </c>
       <c r="L72" t="inlineStr"/>
@@ -3984,35 +3964,23 @@
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Sante Fe</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L73" t="inlineStr"/>
@@ -4030,45 +3998,6 @@
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr"/>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/03-23-25 to 3-29-25 Milwaukee Schedule.xlsx
+++ b/03-23-25 to 3-29-25 Milwaukee Schedule.xlsx
@@ -1986,7 +1986,7 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>Train Sophia</t>
+          <t>Train Pamela</t>
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
@@ -2003,7 +2003,7 @@
       <c r="W33" t="inlineStr">
         <is>
           <t>7th Scan,
-Train w/ Carlie</t>
+Train w/ Jerry</t>
         </is>
       </c>
       <c r="X33" t="inlineStr"/>
@@ -2062,7 +2062,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>Trainer</t>
+          <t>Train Pamela</t>
         </is>
       </c>
       <c r="X34" t="inlineStr"/>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>Train Brenda</t>
+          <t>Trainer</t>
         </is>
       </c>
       <c r="T35" t="inlineStr"/>
@@ -2224,7 +2224,7 @@
       <c r="O37" t="inlineStr">
         <is>
           <t>5th Scan,
-Train w/ Carlie</t>
+Train w/ Jerry</t>
         </is>
       </c>
       <c r="P37" t="inlineStr"/>
@@ -2250,7 +2250,11 @@
           <t>Jerry D</t>
         </is>
       </c>
-      <c r="W37" t="inlineStr"/>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
     </row>
@@ -2296,7 +2300,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Train Brenda</t>
+          <t>Train Pamela</t>
         </is>
       </c>
       <c r="P38" t="inlineStr"/>
@@ -2504,10 +2508,15 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr"/>
+          <t>Pamela</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>2nd Scan,
+work w/ Carlie</t>
+        </is>
+      </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
@@ -2516,10 +2525,15 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr"/>
+          <t>Pamela</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>3rd Scan,
+work w/ Carlie</t>
+        </is>
+      </c>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
     </row>
@@ -2546,7 +2560,11 @@
           <t>Jerry D</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr"/>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Train Brenda</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
@@ -2555,7 +2573,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2567,7 +2585,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2610,15 +2628,10 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>4th Scan,
-Train w/ Carlie</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
@@ -2627,15 +2640,10 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>5th Scan,
-Train w/ Carlie</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
     </row>
@@ -2676,13 +2684,39 @@
         </is>
       </c>
       <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>4th Scan,
+Train w/ Ian</t>
+        </is>
+      </c>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>5th Scan,
+Train w/ Jerry</t>
+        </is>
+      </c>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
     </row>
@@ -2757,17 +2791,18 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr"/>
+          <t>Pamela</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>1st Scan,
+work w/ Carlie</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
@@ -2804,7 +2839,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -2812,7 +2847,7 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -2851,13 +2886,17 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
@@ -2879,8 +2918,16 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
@@ -2984,11 +3031,7 @@
       </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>4:00 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
@@ -3037,7 +3080,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:00 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3088,7 +3131,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3139,7 +3182,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>SULLIVAN'S FOODS #225, FREEPORT</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3190,7 +3233,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2002 W GALENA AVE</t>
+          <t>SULLIVAN'S FOODS #225, FREEPORT</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3241,7 +3284,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/YcFP9FTjTEs94iQh7</t>
+          <t>2002 W GALENA AVE</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3290,7 +3333,11 @@
       </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/YcFP9FTjTEs94iQh7</t>
+        </is>
+      </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
@@ -3332,21 +3379,9 @@
       </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
@@ -3399,17 +3434,17 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>White Camry</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P59" t="inlineStr"/>
@@ -3446,17 +3481,17 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>White Camry</t>
         </is>
       </c>
       <c r="P60" t="inlineStr"/>
@@ -3493,12 +3528,12 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -3536,12 +3571,12 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -3579,12 +3614,12 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -3626,12 +3661,12 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -3671,9 +3706,21 @@
       </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>

--- a/03-23-25 to 3-29-25 Milwaukee Schedule.xlsx
+++ b/03-23-25 to 3-29-25 Milwaukee Schedule.xlsx
@@ -2002,8 +2002,7 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>7th Scan,
-Train w/ Jerry</t>
+          <t>7th Scan</t>
         </is>
       </c>
       <c r="X33" t="inlineStr"/>
@@ -2166,7 +2165,11 @@
           <t>Jerry D</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr"/>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Train NasZire</t>
+        </is>
+      </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
@@ -2252,7 +2255,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>Trainer</t>
+          <t>Train Pamela</t>
         </is>
       </c>
       <c r="X37" t="inlineStr"/>
@@ -2508,13 +2511,12 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>2nd Scan,
-work w/ Carlie</t>
+          <t>1st Scan, work w/ Jerry</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
@@ -2525,13 +2527,12 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>3rd Scan,
-work w/ Carlie</t>
+          <t>2nd Scan work w/ Carlie</t>
         </is>
       </c>
       <c r="X41" t="inlineStr"/>
@@ -2573,10 +2574,15 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr"/>
+          <t>Pamela</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>2nd Scan,
+work w/ Carlie</t>
+        </is>
+      </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
@@ -2585,10 +2591,15 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr"/>
+          <t>Pamela</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>3rd Scan,
+work w/ Jerry</t>
+        </is>
+      </c>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
     </row>
@@ -2628,7 +2639,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -2640,7 +2651,7 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2691,15 +2702,10 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>4th Scan,
-Train w/ Ian</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
@@ -2708,15 +2714,10 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>5th Scan,
-Train w/ Jerry</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
     </row>
@@ -2753,13 +2754,38 @@
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>4th Scan,
+Train w/ Ian</t>
+        </is>
+      </c>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>5th Scan</t>
+        </is>
+      </c>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
     </row>
@@ -2845,11 +2871,7 @@
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
@@ -2894,7 +2916,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -2931,7 +2953,11 @@
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>

--- a/03-23-25 to 3-29-25 Milwaukee Schedule.xlsx
+++ b/03-23-25 to 3-29-25 Milwaukee Schedule.xlsx
@@ -2061,7 +2061,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>Train Pamela</t>
+          <t>Train NasZire</t>
         </is>
       </c>
       <c r="X34" t="inlineStr"/>
